--- a/WebAPI/WebAPI/file_upload/import_excel/1be30e4f-1eb7-4611-9aee-a763876a37ce.xlsx
+++ b/WebAPI/WebAPI/file_upload/import_excel/1be30e4f-1eb7-4611-9aee-a763876a37ce.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\khoa_luan_tot_nghiep\WebAPI\WebAPI\file_upload\import_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Tên giảng viên</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Chức vụ</t>
   </si>
   <si>
-    <t>Khoa</t>
-  </si>
-  <si>
     <t>Chuyên nghành</t>
   </si>
   <si>
@@ -56,24 +53,12 @@
     <t>Giới tính</t>
   </si>
   <si>
-    <t>Nguyễn Thế Vinh</t>
-  </si>
-  <si>
-    <t>Dương Đông Duy</t>
-  </si>
-  <si>
-    <t>Hồ Đức Duy</t>
-  </si>
-  <si>
     <t>Trưởng khoa</t>
   </si>
   <si>
     <t>Giảng viên</t>
   </si>
   <si>
-    <t>Khoa Công Nghệ Thông Tin</t>
-  </si>
-  <si>
     <t>thanhthaile160801@gmail.com</t>
   </si>
   <si>
@@ -83,14 +68,32 @@
     <t>Nam</t>
   </si>
   <si>
-    <t>Công Nghệ phần mềm</t>
+    <t>Bộ môn</t>
+  </si>
+  <si>
+    <t>Bộ Môn B</t>
+  </si>
+  <si>
+    <t>Chuyên Nghành A</t>
+  </si>
+  <si>
+    <t>Chuyên Nghành B</t>
+  </si>
+  <si>
+    <t>Nguyễn Thế Vinh22</t>
+  </si>
+  <si>
+    <t>Dương Đông Duy22</t>
+  </si>
+  <si>
+    <t>Hồ Đức Duy22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,16 +109,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -123,15 +138,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -413,151 +449,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="4" width="18.109375" customWidth="1"/>
     <col min="5" max="5" width="19.77734375" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
     <col min="7" max="7" width="32.77734375" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2">
+        <v>20011121222</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2">
+        <v>123654789</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6">
+        <v>37119</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20011121322</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>2001121212</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>123654789</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="6">
+        <v>37120</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>20112121422</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2">
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2">
         <v>123654789</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2">
-        <v>37119</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>2001121213</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3">
-        <v>123654789</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2">
-        <v>37120</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>2001121214</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>123654789</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="I4" s="6">
         <v>37121</v>
       </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
+      <c r="J4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -565,5 +604,6 @@
     <hyperlink ref="G3:G4" r:id="rId2" display="thanhthaile160801@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>